--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="889">
   <si>
     <t>anchor score</t>
   </si>
@@ -94,688 +94,688 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>mis</t>
   </si>
   <si>
     <t>stay</t>
@@ -3046,10 +3046,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03251690189366949</v>
+        <v>0.03303433508807975</v>
       </c>
       <c r="C3">
         <v>232</v>
@@ -3157,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03223536497642259</v>
+        <v>0.03274831814543216</v>
       </c>
       <c r="C4">
         <v>228</v>
@@ -3207,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01333206651624948</v>
+        <v>0.01354421630186408</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3228,7 +3228,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>0.01018595905713609</v>
@@ -3257,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01188628160506862</v>
+        <v>0.01207542498289356</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3278,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>0.009862512448359674</v>
@@ -3307,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01169299585201133</v>
+        <v>0.01187906352277889</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -3328,7 +3328,7 @@
         <v>2522</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>0.009088094146056085</v>
@@ -3357,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01067419598826824</v>
+        <v>0.0108440517557713</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3378,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="K8">
         <v>0.008840623094821564</v>
@@ -3387,19 +3387,19 @@
         <v>229</v>
       </c>
       <c r="M8">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3407,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.010238329121311</v>
+        <v>0.01040124905015253</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3428,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.008220490456880019</v>
@@ -3457,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.010238329121311</v>
+        <v>0.01040124905015253</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -3478,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.008199705365572756</v>
@@ -3507,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009547291133969337</v>
+        <v>0.009699214750972232</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3528,7 +3528,7 @@
         <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="K11">
         <v>0.007684014680838092</v>
@@ -3537,19 +3537,19 @@
         <v>173</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3557,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009547291133969337</v>
+        <v>0.009699214750972232</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -3578,7 +3578,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12">
         <v>0.007202560722189463</v>
@@ -3607,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009547291133969337</v>
+        <v>0.009699214750972232</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3628,7 +3628,7 @@
         <v>1763</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K13">
         <v>0.006862852700188686</v>
@@ -3657,7 +3657,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009057355640422459</v>
+        <v>0.009201483038452529</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3678,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>0.006737378632467016</v>
@@ -3707,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3728,7 +3728,7 @@
         <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15">
         <v>0.006635291233955891</v>
@@ -3757,7 +3757,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3778,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K16">
         <v>0.006609523015313517</v>
@@ -3807,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -3828,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K17">
         <v>0.006452753123531246</v>
@@ -3857,7 +3857,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008539356790614596</v>
+        <v>0.008675241404617041</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3878,7 +3878,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K18">
         <v>0.006237600557716068</v>
@@ -3907,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008268196659343386</v>
+        <v>0.008399766371102711</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19">
         <v>0.006043061627308642</v>
@@ -3957,7 +3957,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008268196659343386</v>
+        <v>0.008399766371102711</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4007,28 +4007,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008268196659343386</v>
+        <v>0.008114945270908124</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>0.005753750180266963</v>
@@ -4057,13 +4057,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00798783685347533</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>0.005753750180266963</v>
@@ -4107,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4125,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23">
         <v>0.005633867238328473</v>
@@ -4157,7 +4157,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4175,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K24">
         <v>0.005386102292334267</v>
@@ -4207,7 +4207,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K25">
         <v>0.00522528674392367</v>
@@ -4257,13 +4257,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007697272192010633</v>
+        <v>0.007512979440360954</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K26">
         <v>0.004957142261485137</v>
@@ -4307,28 +4307,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007395299912651393</v>
+        <v>0.007512979440360954</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>0.004957142261485137</v>
@@ -4357,28 +4357,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007395299912651393</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K28">
         <v>0.004887808185853488</v>
@@ -4407,28 +4407,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007395299912651393</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="D29">
-        <v>185</v>
-      </c>
       <c r="E29">
-        <v>0.9399999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="F29">
-        <v>0.06000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K29">
         <v>0.004817476343770746</v>
@@ -4457,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K30">
         <v>0.004781922526906721</v>
@@ -4507,28 +4507,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C31">
         <v>11</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K31">
         <v>0.004781922526906721</v>
@@ -4557,7 +4557,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K32">
         <v>0.004746102378150429</v>
@@ -4607,28 +4607,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K33">
         <v>0.004525231062295971</v>
@@ -4657,13 +4657,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007080460606360524</v>
+        <v>0.006858380522597057</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34">
         <v>0.004449171341751485</v>
@@ -4707,25 +4707,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007080460606360524</v>
+        <v>0.006858380522597057</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>255</v>
@@ -4757,13 +4757,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006750954302791922</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4775,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K36">
         <v>0.00421276085382803</v>
@@ -4807,13 +4807,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006750954302791922</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4825,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>0.00421276085382803</v>
@@ -4857,7 +4857,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006404517592960947</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>256</v>
@@ -4907,28 +4907,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006404517592960947</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K39">
         <v>0.004130951884570948</v>
@@ -4957,13 +4957,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006404517592960947</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K40">
         <v>0.00404748970767495</v>
@@ -5007,28 +5007,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006404517592960947</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>294</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>0.003918965057942752</v>
@@ -5057,7 +5057,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>0.00378607994065337</v>
@@ -5107,7 +5107,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K43">
         <v>0.003648357919483697</v>
@@ -5157,13 +5157,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006038237093614974</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5175,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K44">
         <v>0.003601280361094731</v>
@@ -5207,13 +5207,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006038237093614974</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>257</v>
@@ -5257,28 +5257,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00564825360610422</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K46">
         <v>0.003553579177358202</v>
@@ -5307,25 +5307,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00564825360610422</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C47">
         <v>7</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>258</v>
@@ -5357,28 +5357,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00564825360610422</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C48">
         <v>7</v>
       </c>
       <c r="D48">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="E48">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F48">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>652</v>
+        <v>72</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K48">
         <v>0.003505228908402558</v>
@@ -5407,28 +5407,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00564825360610422</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K49">
         <v>0.003505228908402558</v>
@@ -5457,28 +5457,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00564825360610422</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K50">
         <v>0.003304761507656758</v>
@@ -5507,7 +5507,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K51">
         <v>0.003252714766627557</v>
@@ -5557,7 +5557,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5578,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K52">
         <v>0.003252714766627557</v>
@@ -5607,7 +5607,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>259</v>
@@ -5657,7 +5657,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5675,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K54">
         <v>0.003252714766627557</v>
@@ -5707,7 +5707,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K55">
         <v>0.003199821570585485</v>
@@ -5757,28 +5757,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C56">
         <v>6</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K56">
         <v>0.003146039226413325</v>
@@ -5807,28 +5807,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C57">
         <v>6</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>3043</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <v>0.003091321326662524</v>
@@ -5857,28 +5857,28 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005229266717144083</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K58">
         <v>0.003035617280756213</v>
@@ -5907,28 +5907,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005229266717144083</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>3043</v>
+        <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K59">
         <v>0.003035617280756213</v>
@@ -5957,7 +5957,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>260</v>
@@ -6007,7 +6007,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -6025,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K61">
         <v>0.00297887176725903</v>
@@ -6057,7 +6057,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>261</v>
@@ -6107,7 +6107,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K63">
         <v>0.002921024090335465</v>
@@ -6157,7 +6157,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>262</v>
@@ -6207,7 +6207,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K65">
         <v>0.002862007419079714</v>
@@ -6257,28 +6257,28 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K66">
         <v>0.002740163485626673</v>
@@ -6307,28 +6307,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K67">
         <v>0.002677162800150359</v>
@@ -6357,28 +6357,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="E68">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F68">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K68">
         <v>0.002677162800150359</v>
@@ -6407,28 +6407,28 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E69">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F69">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>795</v>
+        <v>552</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K69">
         <v>0.002677162800150359</v>
@@ -6457,25 +6457,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="E70">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="F70">
-        <v>0.04000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>263</v>
@@ -6507,28 +6507,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E71">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F71">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>552</v>
+        <v>262</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K71">
         <v>0.002677162800150359</v>
@@ -6557,28 +6557,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E72">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F72">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K72">
         <v>0.002612643371961835</v>
@@ -6607,28 +6607,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004773645566984668</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K73">
         <v>0.002612643371961835</v>
@@ -6657,25 +6657,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004773645566984668</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>264</v>
@@ -6707,7 +6707,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>265</v>
@@ -6757,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>266</v>
@@ -6807,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>267</v>
@@ -6857,28 +6857,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K78">
         <v>0.002546489764284024</v>
@@ -6907,7 +6907,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -6925,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K79">
         <v>0.002546489764284024</v>
@@ -6957,25 +6957,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>268</v>
@@ -7007,28 +7007,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K81">
         <v>0.002408738171885373</v>
@@ -7057,28 +7057,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="E82">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F82">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K82">
         <v>0.002408738171885373</v>
@@ -7107,28 +7107,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E83">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>27</v>
+        <v>434</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K83">
         <v>0.002408738171885373</v>
@@ -7157,25 +7157,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F84">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>28</v>
+        <v>950</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>269</v>
@@ -7207,25 +7207,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>434</v>
+        <v>64</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>270</v>
@@ -7257,25 +7257,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E86">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F86">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>950</v>
+        <v>279</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>271</v>
@@ -7307,28 +7307,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E87">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F87">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K87">
         <v>0.002185894272909665</v>
@@ -7357,25 +7357,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.004269678395307298</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>279</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>272</v>
@@ -7407,28 +7407,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.004269678395307298</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K89">
         <v>0.002106380426914015</v>
@@ -7457,7 +7457,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7475,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K90">
         <v>0.002106380426914015</v>
@@ -7507,7 +7507,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K91">
         <v>0.002106380426914015</v>
@@ -7557,7 +7557,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>273</v>
@@ -7607,7 +7607,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>274</v>
@@ -7657,7 +7657,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>275</v>
@@ -7707,7 +7707,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>276</v>
@@ -7757,7 +7757,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7775,10 +7775,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K96">
         <v>0.002106380426914015</v>
@@ -7807,25 +7807,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>277</v>
@@ -7857,25 +7857,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>278</v>
@@ -7907,25 +7907,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="F99">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>279</v>
@@ -7957,28 +7957,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E100">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K100">
         <v>0.002023744853837475</v>
@@ -8007,25 +8007,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F101">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>280</v>
@@ -8057,13 +8057,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E102">
         <v>0.97</v>
@@ -8075,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>281</v>
@@ -8107,25 +8107,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003697649956325696</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>282</v>
@@ -8157,25 +8157,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003697649956325696</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>283</v>
@@ -8207,7 +8207,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8225,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K105">
         <v>0.001937588182246387</v>
@@ -8257,7 +8257,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>284</v>
@@ -8307,7 +8307,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>285</v>
@@ -8357,7 +8357,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>286</v>
@@ -8407,7 +8407,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>287</v>
@@ -8457,7 +8457,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>288</v>
@@ -8507,7 +8507,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8557,7 +8557,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8575,10 +8575,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K112">
         <v>0.001937588182246387</v>
@@ -8607,28 +8607,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>1107</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K113">
         <v>0.001847417845136301</v>
@@ -8657,25 +8657,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>290</v>
@@ -8707,25 +8707,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="F115">
-        <v>0.04000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1107</v>
+        <v>20</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>291</v>
@@ -8757,28 +8757,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F116">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K116">
         <v>0.001847417845136301</v>
@@ -8807,25 +8807,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E117">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>292</v>
@@ -8857,28 +8857,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E118">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F118">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K118">
         <v>0.001847417845136301</v>
@@ -8907,25 +8907,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>293</v>
@@ -8957,28 +8957,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E120">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F120">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K120">
         <v>0.001847417845136301</v>
@@ -9007,25 +9007,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>294</v>
@@ -9057,28 +9057,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F122">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K122">
         <v>0.001847417845136301</v>
@@ -9107,25 +9107,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>295</v>
@@ -9157,7 +9157,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>296</v>
@@ -9207,25 +9207,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E125">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>297</v>
@@ -9257,28 +9257,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E126">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="F126">
-        <v>0.22</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K126">
         <v>0.001752614454201279</v>
@@ -9307,25 +9307,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E127">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F127">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>298</v>
@@ -9357,25 +9357,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F128">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>299</v>
@@ -9407,25 +9407,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F129">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>300</v>
@@ -9457,25 +9457,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>301</v>
@@ -9507,25 +9507,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="E131">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>302</v>
@@ -9557,28 +9557,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K132">
         <v>0.001752614454201279</v>
@@ -9607,13 +9607,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E133">
         <v>0.97</v>
@@ -9625,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>303</v>
@@ -9657,25 +9657,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E134">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F134">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>304</v>
@@ -9707,25 +9707,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>305</v>
@@ -9757,25 +9757,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.003019118546807487</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>306</v>
@@ -9807,13 +9807,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.003019118546807487</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>307</v>
@@ -9857,7 +9857,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>308</v>
@@ -9907,7 +9907,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>309</v>
@@ -9957,7 +9957,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9975,10 +9975,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K140">
         <v>0.001652380753828379</v>
@@ -10007,7 +10007,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K141">
         <v>0.001545660663331262</v>
@@ -10057,7 +10057,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10075,10 +10075,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K142">
         <v>0.001545660663331262</v>
@@ -10107,7 +10107,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>310</v>
@@ -10157,7 +10157,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>311</v>
@@ -10207,7 +10207,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>312</v>
@@ -10257,25 +10257,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>313</v>
@@ -10307,7 +10307,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K147">
         <v>0.001545660663331262</v>
@@ -10357,25 +10357,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>314</v>
@@ -10407,25 +10407,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>315</v>
@@ -10457,25 +10457,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>316</v>
@@ -10507,7 +10507,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10525,10 +10525,10 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K151">
         <v>0.001545660663331262</v>
@@ -10557,25 +10557,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>317</v>
@@ -10607,25 +10607,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>318</v>
@@ -10657,28 +10657,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K154">
         <v>0.001545660663331262</v>
@@ -10707,7 +10707,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10725,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K155">
         <v>0.001545660663331262</v>
@@ -10757,28 +10757,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K156">
         <v>0.001545660663331262</v>
@@ -10807,25 +10807,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>319</v>
@@ -10857,7 +10857,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>320</v>
@@ -10907,25 +10907,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>321</v>
@@ -10957,28 +10957,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K160">
         <v>0.001545660663331262</v>
@@ -11007,28 +11007,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K161">
         <v>0.001545660663331262</v>
@@ -11057,28 +11057,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K162">
         <v>0.001431003709539857</v>
@@ -11107,7 +11107,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>322</v>
@@ -11157,25 +11157,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>323</v>
@@ -11207,25 +11207,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>324</v>
@@ -11257,25 +11257,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F166">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>325</v>
@@ -11307,25 +11307,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>326</v>
@@ -11357,25 +11357,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>327</v>
@@ -11407,25 +11407,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>328</v>
@@ -11457,25 +11457,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>329</v>
@@ -11507,7 +11507,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11525,10 +11525,10 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K171">
         <v>0.001431003709539857</v>
@@ -11557,25 +11557,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>330</v>
@@ -11607,7 +11607,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>331</v>
@@ -11657,25 +11657,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>332</v>
@@ -11707,25 +11707,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>333</v>
@@ -11757,25 +11757,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>334</v>
@@ -11807,25 +11807,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>335</v>
@@ -11857,28 +11857,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K178">
         <v>0.001431003709539857</v>
@@ -11907,25 +11907,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>336</v>
@@ -11957,25 +11957,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>337</v>
@@ -12007,25 +12007,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>338</v>
@@ -12057,28 +12057,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K182">
         <v>0.001431003709539857</v>
@@ -12107,25 +12107,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>339</v>
@@ -12157,7 +12157,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>55</v>
+        <v>372</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>340</v>
@@ -12207,25 +12207,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>341</v>
@@ -12257,25 +12257,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>342</v>
@@ -12307,25 +12307,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>343</v>
@@ -12357,25 +12357,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>344</v>
@@ -12407,25 +12407,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>345</v>
@@ -12457,25 +12457,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>346</v>
@@ -12507,28 +12507,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K191">
         <v>0.001306321685980918</v>
@@ -12557,7 +12557,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>347</v>
@@ -12607,7 +12607,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>348</v>
@@ -12657,25 +12657,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>349</v>
@@ -12707,28 +12707,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K195">
         <v>0.001306321685980918</v>
@@ -12757,25 +12757,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>350</v>
@@ -12807,25 +12807,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>351</v>
@@ -12857,25 +12857,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>352</v>
@@ -12907,25 +12907,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E199">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>73</v>
+        <v>531</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>353</v>
@@ -12957,25 +12957,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E200">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F200">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>354</v>
@@ -13007,25 +13007,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>531</v>
+        <v>27</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>355</v>
@@ -13057,25 +13057,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F202">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>356</v>
@@ -13107,25 +13107,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>357</v>
@@ -13157,25 +13157,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>358</v>
@@ -13207,7 +13207,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>359</v>
@@ -13257,25 +13257,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>360</v>
@@ -13307,25 +13307,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>361</v>
@@ -13357,25 +13357,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>362</v>
@@ -13407,25 +13407,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>363</v>
@@ -13457,25 +13457,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>364</v>
@@ -13507,25 +13507,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>365</v>
@@ -13557,25 +13557,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>366</v>
@@ -13607,25 +13607,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>367</v>
@@ -13657,28 +13657,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K214">
         <v>0.001306321685980918</v>
@@ -13707,25 +13707,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>368</v>
@@ -13757,25 +13757,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>369</v>
@@ -13807,28 +13807,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K217">
         <v>0.001168409636134186</v>
@@ -13857,25 +13857,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F218">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>370</v>
@@ -13907,25 +13907,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>371</v>
@@ -13957,25 +13957,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E220">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F220">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>372</v>
@@ -14007,28 +14007,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F221">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K221">
         <v>0.001168409636134186</v>
@@ -14057,25 +14057,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E222">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F222">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>373</v>
@@ -14107,28 +14107,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K223">
         <v>0.001168409636134186</v>
@@ -14157,25 +14157,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E224">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F224">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>374</v>
@@ -14207,25 +14207,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>375</v>
@@ -14257,25 +14257,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E226">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>376</v>
@@ -14307,28 +14307,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K227">
         <v>0.001168409636134186</v>
@@ -14357,13 +14357,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E228">
         <v>0.97</v>
@@ -14375,10 +14375,10 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K228">
         <v>0.001168409636134186</v>
@@ -14407,28 +14407,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K229">
         <v>0.001168409636134186</v>
@@ -14457,25 +14457,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>377</v>
@@ -14507,13 +14507,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E231">
         <v>0.99</v>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>378</v>
@@ -14557,25 +14557,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
+      </c>
+      <c r="H232">
         <v>18</v>
-      </c>
-      <c r="E232">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F232">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>288</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>379</v>
@@ -14607,25 +14607,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E233">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>347</v>
+        <v>107</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>380</v>
@@ -14657,25 +14657,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>381</v>
@@ -14707,25 +14707,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>382</v>
@@ -14757,25 +14757,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>383</v>
@@ -14807,25 +14807,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>384</v>
@@ -14857,25 +14857,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>385</v>
@@ -14907,25 +14907,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>386</v>
@@ -14957,25 +14957,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>387</v>
@@ -15007,25 +15007,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>388</v>
@@ -15057,28 +15057,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K242">
         <v>0.001168409636134186</v>
@@ -15107,7 +15107,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>389</v>
@@ -15157,28 +15157,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>33</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K244">
         <v>0.001168409636134186</v>
@@ -15207,7 +15207,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15225,10 +15225,10 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K245">
         <v>0.001168409636134186</v>
@@ -15257,7 +15257,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15275,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>390</v>
@@ -15303,30 +15303,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.002134839197653649</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>251</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>391</v>
       </c>
@@ -15353,30 +15329,6 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.002134839197653649</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>10</v>
-      </c>
       <c r="J248" s="1" t="s">
         <v>392</v>
       </c>
@@ -15612,7 +15564,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K257">
         <v>0.001168409636134186</v>
@@ -16028,7 +15980,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K273">
         <v>0.001011872426918738</v>
@@ -16158,7 +16110,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K278">
         <v>0.001011872426918738</v>
@@ -16418,7 +16370,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K288">
         <v>0.001011872426918738</v>
@@ -16522,7 +16474,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K292">
         <v>0.001011872426918738</v>
@@ -16548,7 +16500,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K293">
         <v>0.001011872426918738</v>
@@ -16990,7 +16942,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K310">
         <v>0.001011872426918738</v>
@@ -17172,7 +17124,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K317">
         <v>0.001011872426918738</v>
@@ -18654,7 +18606,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K374">
         <v>0.0008261903769141896</v>
@@ -18706,7 +18658,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K376">
         <v>0.0008261903769141896</v>
@@ -18836,7 +18788,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K381">
         <v>0.0008261903769141896</v>
@@ -19304,7 +19256,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K399">
         <v>0.0008261903769141896</v>
@@ -20266,7 +20218,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K436">
         <v>0.0008261903769141896</v>
@@ -20994,7 +20946,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K464">
         <v>0.0005842048180670931</v>
@@ -21254,7 +21206,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K474">
         <v>0.0005842048180670931</v>
@@ -21592,7 +21544,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K487">
         <v>0.0005842048180670931</v>
@@ -21800,7 +21752,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K495">
         <v>0.0005842048180670931</v>
@@ -24036,7 +23988,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K581">
         <v>0.0005842048180670931</v>
@@ -24972,7 +24924,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K617">
         <v>0.0005842048180670931</v>
@@ -25362,7 +25314,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K632">
         <v>0.0005842048180670931</v>
@@ -26012,7 +25964,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K657">
         <v>0.0005842048180670931</v>
@@ -26870,7 +26822,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K690">
         <v>0.0005842048180670931</v>
@@ -27052,7 +27004,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K697">
         <v>0.0005842048180670931</v>
@@ -28092,7 +28044,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K737">
         <v>0.0005842048180670931</v>
